--- a/MacroTrend/BIG/BIG_A.xlsx
+++ b/MacroTrend/BIG/BIG_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ13"/>
+  <dimension ref="A1:CQ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,62 +913,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5468.329</v>
+        <v>4722.099</v>
       </c>
       <c r="C2" t="n">
-        <v>3554.826</v>
+        <v>3035.488</v>
       </c>
       <c r="D2" t="n">
-        <v>1913.503</v>
+        <v>1686.611</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2020.144</v>
+        <v>2141.927</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>212.463</v>
       </c>
       <c r="H2" t="n">
-        <v>2175.003</v>
+        <v>2073.968</v>
       </c>
       <c r="I2" t="n">
-        <v>-261.5</v>
+        <v>-387.357</v>
       </c>
       <c r="J2" t="n">
-        <v>-18.917</v>
+        <v>-44.751</v>
       </c>
       <c r="K2" t="n">
-        <v>-280.417</v>
+        <v>-432.108</v>
       </c>
       <c r="L2" t="n">
-        <v>-69.709</v>
+        <v>49.768</v>
       </c>
       <c r="M2" t="n">
-        <v>-210.708</v>
+        <v>-481.876</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-210.708</v>
+        <v>-481.876</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-210.708</v>
+        <v>-481.876</v>
       </c>
       <c r="R2" t="n">
-        <v>-105.073</v>
+        <v>-387.357</v>
       </c>
       <c r="S2" t="n">
-        <v>-261.5</v>
+        <v>-387.357</v>
       </c>
       <c r="T2" t="n">
         <v>29</v>
@@ -977,10 +977,10 @@
         <v>29</v>
       </c>
       <c r="V2" t="n">
-        <v>-7.3</v>
+        <v>-16.53</v>
       </c>
       <c r="W2" t="n">
-        <v>-7.3</v>
+        <v>-16.53</v>
       </c>
       <c r="X2" t="n">
         <v>44.73</v>
@@ -1052,43 +1052,43 @@
         <v>3690.931</v>
       </c>
       <c r="AU2" t="n">
-        <v>-210.708</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>156.427</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>271.687</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>428.114</v>
+        <v>0</v>
       </c>
       <c r="AY2" t="n">
         <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>89.848</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-165.816</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>-305.404</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>-361.692</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-144.286</v>
+        <v>-251.96</v>
       </c>
       <c r="BE2" t="n">
-        <v>-159.413</v>
+        <v>0</v>
       </c>
       <c r="BF2" t="n">
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>50.496</v>
+        <v>0</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1100,43 +1100,43 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.023</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-108.94</v>
+        <v>279.511</v>
       </c>
       <c r="BM2" t="n">
-        <v>296.164</v>
+        <v>0</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>296.164</v>
+        <v>0</v>
       </c>
       <c r="BP2" t="n">
-        <v>-11.18</v>
+        <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-11.18</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-36.997</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>-3.753</v>
+        <v>0</v>
       </c>
       <c r="BT2" t="n">
-        <v>244.234</v>
+        <v>-25.87</v>
       </c>
       <c r="BU2" t="n">
-        <v>-8.992000000000001</v>
+        <v>1.681</v>
       </c>
       <c r="BV2" t="n">
-        <v>14.799</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>-36.997</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
         <v>1.3973</v>
@@ -1202,74 +1202,74 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6150.603</v>
+        <v>5468.329</v>
       </c>
       <c r="C3" t="n">
-        <v>3753.596</v>
+        <v>3554.826</v>
       </c>
       <c r="D3" t="n">
-        <v>2397.007</v>
+        <v>1913.503</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2014.682</v>
+        <v>2020.144</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2157.254</v>
+        <v>2175.003</v>
       </c>
       <c r="I3" t="n">
-        <v>239.753</v>
+        <v>-261.5</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.942</v>
+        <v>-18.917</v>
       </c>
       <c r="K3" t="n">
-        <v>231.811</v>
+        <v>-280.417</v>
       </c>
       <c r="L3" t="n">
-        <v>54.033</v>
+        <v>-69.709</v>
       </c>
       <c r="M3" t="n">
-        <v>177.778</v>
+        <v>-210.708</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>177.778</v>
+        <v>-210.708</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>177.778</v>
+        <v>-210.708</v>
       </c>
       <c r="R3" t="n">
-        <v>383.466</v>
+        <v>-105.073</v>
       </c>
       <c r="S3" t="n">
-        <v>239.753</v>
+        <v>-261.5</v>
       </c>
       <c r="T3" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="U3" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="V3" t="n">
-        <v>5.43</v>
+        <v>-7.3</v>
       </c>
       <c r="W3" t="n">
-        <v>5.33</v>
+        <v>-7.3</v>
       </c>
       <c r="X3" t="n">
         <v>53.722</v>
@@ -1341,43 +1341,43 @@
         <v>3927.253</v>
       </c>
       <c r="AU3" t="n">
-        <v>177.778</v>
+        <v>-210.708</v>
       </c>
       <c r="AV3" t="n">
-        <v>143.713</v>
+        <v>156.427</v>
       </c>
       <c r="AW3" t="n">
-        <v>329.389</v>
+        <v>271.687</v>
       </c>
       <c r="AX3" t="n">
-        <v>473.102</v>
+        <v>428.114</v>
       </c>
       <c r="AY3" t="n">
         <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-297.503</v>
+        <v>89.848</v>
       </c>
       <c r="BA3" t="n">
-        <v>189.063</v>
+        <v>-165.816</v>
       </c>
       <c r="BB3" t="n">
-        <v>-272.249</v>
+        <v>-305.404</v>
       </c>
       <c r="BC3" t="n">
-        <v>-457.118</v>
+        <v>-361.692</v>
       </c>
       <c r="BD3" t="n">
-        <v>193.762</v>
+        <v>-144.286</v>
       </c>
       <c r="BE3" t="n">
-        <v>-160.804</v>
+        <v>-159.413</v>
       </c>
       <c r="BF3" t="n">
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.155</v>
+        <v>50.496</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
@@ -1389,43 +1389,43 @@
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.037</v>
+        <v>-0.023</v>
       </c>
       <c r="BL3" t="n">
-        <v>-159.686</v>
+        <v>-108.94</v>
       </c>
       <c r="BM3" t="n">
-        <v>-50.418</v>
+        <v>296.164</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
       </c>
       <c r="BO3" t="n">
-        <v>-50.418</v>
+        <v>296.164</v>
       </c>
       <c r="BP3" t="n">
-        <v>-446.374</v>
+        <v>-11.18</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-446.374</v>
+        <v>-11.18</v>
       </c>
       <c r="BR3" t="n">
-        <v>-41.653</v>
+        <v>-36.997</v>
       </c>
       <c r="BS3" t="n">
-        <v>-1.465</v>
+        <v>-3.753</v>
       </c>
       <c r="BT3" t="n">
-        <v>-539.91</v>
+        <v>244.234</v>
       </c>
       <c r="BU3" t="n">
-        <v>-505.834</v>
+        <v>-8.992000000000001</v>
       </c>
       <c r="BV3" t="n">
-        <v>39.601</v>
+        <v>14.799</v>
       </c>
       <c r="BW3" t="n">
-        <v>-41.653</v>
+        <v>-36.997</v>
       </c>
       <c r="BX3" t="n">
         <v>1.2547</v>
@@ -1491,74 +1491,74 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2021-01-31</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6199.186</v>
+        <v>6150.603</v>
       </c>
       <c r="C4" t="n">
-        <v>3701.8</v>
+        <v>3753.596</v>
       </c>
       <c r="D4" t="n">
-        <v>2497.386</v>
+        <v>2397.007</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1965.555</v>
+        <v>2014.682</v>
       </c>
       <c r="G4" t="n">
-        <v>463.053</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1640.838</v>
+        <v>2157.254</v>
       </c>
       <c r="I4" t="n">
-        <v>856.548</v>
+        <v>239.753</v>
       </c>
       <c r="J4" t="n">
-        <v>-11.942</v>
+        <v>-7.942</v>
       </c>
       <c r="K4" t="n">
-        <v>844.606</v>
+        <v>231.811</v>
       </c>
       <c r="L4" t="n">
-        <v>215.415</v>
+        <v>54.033</v>
       </c>
       <c r="M4" t="n">
-        <v>629.191</v>
+        <v>177.778</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>629.191</v>
+        <v>177.778</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>629.191</v>
+        <v>177.778</v>
       </c>
       <c r="R4" t="n">
-        <v>995.396</v>
+        <v>383.466</v>
       </c>
       <c r="S4" t="n">
-        <v>856.548</v>
+        <v>239.753</v>
       </c>
       <c r="T4" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U4" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="V4" t="n">
-        <v>16.46</v>
+        <v>5.43</v>
       </c>
       <c r="W4" t="n">
-        <v>16.11</v>
+        <v>5.33</v>
       </c>
       <c r="X4" t="n">
         <v>559.556</v>
@@ -1630,43 +1630,43 @@
         <v>4037.257</v>
       </c>
       <c r="AU4" t="n">
-        <v>629.191</v>
+        <v>177.778</v>
       </c>
       <c r="AV4" t="n">
-        <v>138.848</v>
+        <v>143.713</v>
       </c>
       <c r="AW4" t="n">
-        <v>-241.236</v>
+        <v>329.389</v>
       </c>
       <c r="AX4" t="n">
-        <v>-102.388</v>
+        <v>473.102</v>
       </c>
       <c r="AY4" t="n">
         <v>0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-19.028</v>
+        <v>-297.503</v>
       </c>
       <c r="BA4" t="n">
-        <v>20.193</v>
+        <v>189.063</v>
       </c>
       <c r="BB4" t="n">
-        <v>-185.183</v>
+        <v>-272.249</v>
       </c>
       <c r="BC4" t="n">
-        <v>-127.454</v>
+        <v>-457.118</v>
       </c>
       <c r="BD4" t="n">
-        <v>399.349</v>
+        <v>193.762</v>
       </c>
       <c r="BE4" t="n">
-        <v>-135.22</v>
+        <v>-160.804</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>588.258</v>
+        <v>1.155</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
@@ -1678,43 +1678,43 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.051</v>
+        <v>-0.037</v>
       </c>
       <c r="BL4" t="n">
-        <v>452.987</v>
+        <v>-159.686</v>
       </c>
       <c r="BM4" t="n">
-        <v>-246.875</v>
+        <v>-50.418</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-246.875</v>
+        <v>-50.418</v>
       </c>
       <c r="BP4" t="n">
-        <v>-175.149</v>
+        <v>-446.374</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-175.149</v>
+        <v>-446.374</v>
       </c>
       <c r="BR4" t="n">
-        <v>-46.964</v>
+        <v>-41.653</v>
       </c>
       <c r="BS4" t="n">
-        <v>123.487</v>
+        <v>-1.465</v>
       </c>
       <c r="BT4" t="n">
-        <v>-345.501</v>
+        <v>-539.91</v>
       </c>
       <c r="BU4" t="n">
-        <v>506.835</v>
+        <v>-505.834</v>
       </c>
       <c r="BV4" t="n">
-        <v>26.155</v>
+        <v>39.601</v>
       </c>
       <c r="BW4" t="n">
-        <v>-46.964</v>
+        <v>-41.653</v>
       </c>
       <c r="BX4" t="n">
         <v>1.5848</v>
@@ -1780,74 +1780,74 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2021-01-31</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5323.18</v>
+        <v>6199.186</v>
       </c>
       <c r="C5" t="n">
-        <v>3208.498</v>
+        <v>3701.8</v>
       </c>
       <c r="D5" t="n">
-        <v>2114.682</v>
+        <v>2497.386</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1823.409</v>
+        <v>1965.555</v>
       </c>
       <c r="G5" t="n">
-        <v>178.534</v>
+        <v>463.053</v>
       </c>
       <c r="H5" t="n">
-        <v>1779.856</v>
+        <v>1640.838</v>
       </c>
       <c r="I5" t="n">
-        <v>334.826</v>
+        <v>856.548</v>
       </c>
       <c r="J5" t="n">
-        <v>-17.278</v>
+        <v>-11.942</v>
       </c>
       <c r="K5" t="n">
-        <v>317.548</v>
+        <v>844.606</v>
       </c>
       <c r="L5" t="n">
-        <v>75.084</v>
+        <v>215.415</v>
       </c>
       <c r="M5" t="n">
-        <v>242.464</v>
+        <v>629.191</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>242.464</v>
+        <v>629.191</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>242.464</v>
+        <v>629.191</v>
       </c>
       <c r="R5" t="n">
-        <v>470.512</v>
+        <v>995.396</v>
       </c>
       <c r="S5" t="n">
-        <v>334.826</v>
+        <v>856.548</v>
       </c>
       <c r="T5" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U5" t="n">
         <v>39</v>
       </c>
       <c r="V5" t="n">
-        <v>6.18</v>
+        <v>16.46</v>
       </c>
       <c r="W5" t="n">
-        <v>6.16</v>
+        <v>16.11</v>
       </c>
       <c r="X5" t="n">
         <v>52.721</v>
@@ -1919,43 +1919,43 @@
         <v>3189.281</v>
       </c>
       <c r="AU5" t="n">
-        <v>242.464</v>
+        <v>629.191</v>
       </c>
       <c r="AV5" t="n">
-        <v>135.686</v>
+        <v>138.848</v>
       </c>
       <c r="AW5" t="n">
-        <v>120.904</v>
+        <v>-241.236</v>
       </c>
       <c r="AX5" t="n">
-        <v>256.59</v>
+        <v>-102.388</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>48.295</v>
+        <v>-19.028</v>
       </c>
       <c r="BA5" t="n">
-        <v>-18.662</v>
+        <v>20.193</v>
       </c>
       <c r="BB5" t="n">
-        <v>-185.275</v>
+        <v>-185.183</v>
       </c>
       <c r="BC5" t="n">
-        <v>-160.084</v>
+        <v>-127.454</v>
       </c>
       <c r="BD5" t="n">
-        <v>338.97</v>
+        <v>399.349</v>
       </c>
       <c r="BE5" t="n">
-        <v>-265.203</v>
+        <v>-135.22</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>190.741</v>
+        <v>588.258</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
@@ -1967,43 +1967,43 @@
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.018</v>
+        <v>-0.051</v>
       </c>
       <c r="BL5" t="n">
-        <v>-74.48</v>
+        <v>452.987</v>
       </c>
       <c r="BM5" t="n">
-        <v>-154.078</v>
+        <v>-246.875</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-154.078</v>
+        <v>-246.875</v>
       </c>
       <c r="BP5" t="n">
-        <v>-55.147</v>
+        <v>-175.149</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-55.147</v>
+        <v>-175.149</v>
       </c>
       <c r="BR5" t="n">
-        <v>-48.421</v>
+        <v>-46.964</v>
       </c>
       <c r="BS5" t="n">
-        <v>-0.157</v>
+        <v>123.487</v>
       </c>
       <c r="BT5" t="n">
-        <v>-257.803</v>
+        <v>-345.501</v>
       </c>
       <c r="BU5" t="n">
-        <v>6.687</v>
+        <v>506.835</v>
       </c>
       <c r="BV5" t="n">
-        <v>13.051</v>
+        <v>26.155</v>
       </c>
       <c r="BW5" t="n">
-        <v>-48.421</v>
+        <v>-46.964</v>
       </c>
       <c r="BX5" t="n">
         <v>1.2218</v>
@@ -2069,74 +2069,74 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2019-01-31</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5238.105</v>
+        <v>5323.18</v>
       </c>
       <c r="C6" t="n">
-        <v>3116.21</v>
+        <v>3208.498</v>
       </c>
       <c r="D6" t="n">
-        <v>2121.895</v>
+        <v>2114.682</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1778.416</v>
+        <v>1823.409</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>178.534</v>
       </c>
       <c r="H6" t="n">
-        <v>1903.386</v>
+        <v>1779.856</v>
       </c>
       <c r="I6" t="n">
-        <v>218.509</v>
+        <v>334.826</v>
       </c>
       <c r="J6" t="n">
-        <v>-10.896</v>
+        <v>-17.278</v>
       </c>
       <c r="K6" t="n">
-        <v>207.613</v>
+        <v>317.548</v>
       </c>
       <c r="L6" t="n">
-        <v>50.719</v>
+        <v>75.084</v>
       </c>
       <c r="M6" t="n">
-        <v>156.894</v>
+        <v>242.464</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>156.894</v>
+        <v>242.464</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>156.894</v>
+        <v>242.464</v>
       </c>
       <c r="R6" t="n">
-        <v>332.534</v>
+        <v>470.512</v>
       </c>
       <c r="S6" t="n">
-        <v>218.509</v>
+        <v>334.826</v>
       </c>
       <c r="T6" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U6" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="V6" t="n">
-        <v>3.84</v>
+        <v>6.18</v>
       </c>
       <c r="W6" t="n">
-        <v>3.83</v>
+        <v>6.16</v>
       </c>
       <c r="X6" t="n">
         <v>46.034</v>
@@ -2208,43 +2208,43 @@
         <v>2023.347</v>
       </c>
       <c r="AU6" t="n">
-        <v>156.894</v>
+        <v>242.464</v>
       </c>
       <c r="AV6" t="n">
-        <v>114.025</v>
+        <v>135.686</v>
       </c>
       <c r="AW6" t="n">
-        <v>33.636</v>
+        <v>120.904</v>
       </c>
       <c r="AX6" t="n">
-        <v>147.661</v>
+        <v>256.59</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-96.77200000000001</v>
+        <v>48.295</v>
       </c>
       <c r="BA6" t="n">
-        <v>45.677</v>
+        <v>-18.662</v>
       </c>
       <c r="BB6" t="n">
-        <v>-5.292</v>
+        <v>-185.275</v>
       </c>
       <c r="BC6" t="n">
-        <v>-70.495</v>
+        <v>-160.084</v>
       </c>
       <c r="BD6" t="n">
-        <v>234.06</v>
+        <v>338.97</v>
       </c>
       <c r="BE6" t="n">
-        <v>-232.402</v>
+        <v>-265.203</v>
       </c>
       <c r="BF6" t="n">
-        <v>-15.75</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.519</v>
+        <v>190.741</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
@@ -2256,43 +2256,43 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-128.84</v>
+        <v>-0.018</v>
       </c>
       <c r="BL6" t="n">
-        <v>-376.473</v>
+        <v>-74.48</v>
       </c>
       <c r="BM6" t="n">
-        <v>170.392</v>
+        <v>-154.078</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
       </c>
       <c r="BO6" t="n">
-        <v>170.392</v>
+        <v>-154.078</v>
       </c>
       <c r="BP6" t="n">
-        <v>-109.891</v>
+        <v>-55.147</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-109.891</v>
+        <v>-55.147</v>
       </c>
       <c r="BR6" t="n">
-        <v>-50.608</v>
+        <v>-48.421</v>
       </c>
       <c r="BS6" t="n">
-        <v>127.378</v>
+        <v>-0.157</v>
       </c>
       <c r="BT6" t="n">
-        <v>137.271</v>
+        <v>-257.803</v>
       </c>
       <c r="BU6" t="n">
-        <v>-5.142</v>
+        <v>6.687</v>
       </c>
       <c r="BV6" t="n">
-        <v>26.335</v>
+        <v>13.051</v>
       </c>
       <c r="BW6" t="n">
-        <v>-50.608</v>
+        <v>-48.421</v>
       </c>
       <c r="BX6" t="n">
         <v>1.7665</v>
@@ -2358,74 +2358,74 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2018-01-31</t>
+          <t>2019-01-31</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5264.362</v>
+        <v>5238.105</v>
       </c>
       <c r="C7" t="n">
-        <v>3121.92</v>
+        <v>3116.21</v>
       </c>
       <c r="D7" t="n">
-        <v>2142.442</v>
+        <v>2121.895</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1723.996</v>
+        <v>1778.416</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1841.089</v>
+        <v>1903.386</v>
       </c>
       <c r="I7" t="n">
-        <v>301.353</v>
+        <v>218.509</v>
       </c>
       <c r="J7" t="n">
-        <v>-5.999</v>
+        <v>-10.896</v>
       </c>
       <c r="K7" t="n">
-        <v>295.354</v>
+        <v>207.613</v>
       </c>
       <c r="L7" t="n">
-        <v>105.522</v>
+        <v>50.719</v>
       </c>
       <c r="M7" t="n">
-        <v>189.832</v>
+        <v>156.894</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>189.832</v>
+        <v>156.894</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>189.832</v>
+        <v>156.894</v>
       </c>
       <c r="R7" t="n">
-        <v>407.357</v>
+        <v>332.534</v>
       </c>
       <c r="S7" t="n">
-        <v>301.353</v>
+        <v>218.509</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="U7" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V7" t="n">
-        <v>4.43</v>
+        <v>3.84</v>
       </c>
       <c r="W7" t="n">
-        <v>4.38</v>
+        <v>3.83</v>
       </c>
       <c r="X7" t="n">
         <v>51.176</v>
@@ -2497,43 +2497,43 @@
         <v>1651.726</v>
       </c>
       <c r="AU7" t="n">
-        <v>189.832</v>
+        <v>156.894</v>
       </c>
       <c r="AV7" t="n">
-        <v>106.004</v>
+        <v>114.025</v>
       </c>
       <c r="AW7" t="n">
-        <v>59.488</v>
+        <v>33.636</v>
       </c>
       <c r="AX7" t="n">
-        <v>165.492</v>
+        <v>147.661</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-14.1</v>
+        <v>-96.77200000000001</v>
       </c>
       <c r="BA7" t="n">
-        <v>-49.269</v>
+        <v>45.677</v>
       </c>
       <c r="BB7" t="n">
-        <v>-15.219</v>
+        <v>-5.292</v>
       </c>
       <c r="BC7" t="n">
-        <v>-104.956</v>
+        <v>-70.495</v>
       </c>
       <c r="BD7" t="n">
-        <v>250.368</v>
+        <v>234.06</v>
       </c>
       <c r="BE7" t="n">
-        <v>-142.745</v>
+        <v>-232.402</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-15.75</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.854</v>
+        <v>0.519</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
@@ -2545,43 +2545,43 @@
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-15.617</v>
+        <v>-128.84</v>
       </c>
       <c r="BL7" t="n">
-        <v>-156.508</v>
+        <v>-376.473</v>
       </c>
       <c r="BM7" t="n">
-        <v>89.26600000000001</v>
+        <v>170.392</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>89.26600000000001</v>
+        <v>170.392</v>
       </c>
       <c r="BP7" t="n">
-        <v>-154.045</v>
+        <v>-109.891</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-154.045</v>
+        <v>-109.891</v>
       </c>
       <c r="BR7" t="n">
-        <v>-44.671</v>
+        <v>-50.608</v>
       </c>
       <c r="BS7" t="n">
-        <v>15.602</v>
+        <v>127.378</v>
       </c>
       <c r="BT7" t="n">
-        <v>-93.848</v>
+        <v>137.271</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.012</v>
+        <v>-5.142</v>
       </c>
       <c r="BV7" t="n">
-        <v>27.825</v>
+        <v>26.335</v>
       </c>
       <c r="BW7" t="n">
-        <v>-44.671</v>
+        <v>-50.608</v>
       </c>
       <c r="BX7" t="n">
         <v>1.7333</v>
@@ -2647,74 +2647,74 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2017-01-31</t>
+          <t>2018-01-31</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5193.995</v>
+        <v>5264.362</v>
       </c>
       <c r="C8" t="n">
-        <v>3094.576</v>
+        <v>3121.92</v>
       </c>
       <c r="D8" t="n">
-        <v>2099.419</v>
+        <v>2142.442</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1730.956</v>
+        <v>1723.996</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1851.416</v>
+        <v>1841.089</v>
       </c>
       <c r="I8" t="n">
-        <v>248.003</v>
+        <v>301.353</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.704</v>
+        <v>-5.999</v>
       </c>
       <c r="K8" t="n">
-        <v>244.299</v>
+        <v>295.354</v>
       </c>
       <c r="L8" t="n">
-        <v>91.471</v>
+        <v>105.522</v>
       </c>
       <c r="M8" t="n">
-        <v>152.828</v>
+        <v>189.832</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>152.828</v>
+        <v>189.832</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.828</v>
+        <v>189.832</v>
       </c>
       <c r="R8" t="n">
-        <v>356.318</v>
+        <v>407.357</v>
       </c>
       <c r="S8" t="n">
-        <v>248.003</v>
+        <v>301.353</v>
       </c>
       <c r="T8" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U8" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="V8" t="n">
-        <v>3.37</v>
+        <v>4.43</v>
       </c>
       <c r="W8" t="n">
-        <v>3.32</v>
+        <v>4.38</v>
       </c>
       <c r="X8" t="n">
         <v>51.164</v>
@@ -2786,43 +2786,43 @@
         <v>1607.707</v>
       </c>
       <c r="AU8" t="n">
-        <v>152.828</v>
+        <v>189.832</v>
       </c>
       <c r="AV8" t="n">
-        <v>108.315</v>
+        <v>106.004</v>
       </c>
       <c r="AW8" t="n">
-        <v>22.935</v>
+        <v>59.488</v>
       </c>
       <c r="AX8" t="n">
-        <v>131.25</v>
+        <v>165.492</v>
       </c>
       <c r="AY8" t="n">
         <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-8.707000000000001</v>
+        <v>-14.1</v>
       </c>
       <c r="BA8" t="n">
-        <v>18.217</v>
+        <v>-49.269</v>
       </c>
       <c r="BB8" t="n">
-        <v>5.946</v>
+        <v>-15.219</v>
       </c>
       <c r="BC8" t="n">
-        <v>27.847</v>
+        <v>-104.956</v>
       </c>
       <c r="BD8" t="n">
-        <v>311.925</v>
+        <v>250.368</v>
       </c>
       <c r="BE8" t="n">
-        <v>-89.782</v>
+        <v>-142.745</v>
       </c>
       <c r="BF8" t="n">
         <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>5.061</v>
+        <v>1.854</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
@@ -2834,43 +2834,43 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.02</v>
+        <v>-15.617</v>
       </c>
       <c r="BL8" t="n">
-        <v>-84.70099999999999</v>
+        <v>-156.508</v>
       </c>
       <c r="BM8" t="n">
-        <v>39.586</v>
+        <v>89.26600000000001</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>39.586</v>
+        <v>89.26600000000001</v>
       </c>
       <c r="BP8" t="n">
-        <v>-232.648</v>
+        <v>-154.045</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-232.648</v>
+        <v>-154.045</v>
       </c>
       <c r="BR8" t="n">
-        <v>-38.466</v>
+        <v>-44.671</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.324</v>
+        <v>15.602</v>
       </c>
       <c r="BT8" t="n">
-        <v>-230.204</v>
+        <v>-93.848</v>
       </c>
       <c r="BU8" t="n">
-        <v>-2.98</v>
+        <v>0.012</v>
       </c>
       <c r="BV8" t="n">
-        <v>33.029</v>
+        <v>27.825</v>
       </c>
       <c r="BW8" t="n">
-        <v>-38.466</v>
+        <v>-44.671</v>
       </c>
       <c r="BX8" t="n">
         <v>1.4654</v>
@@ -2936,74 +2936,74 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2017-01-31</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5190.582</v>
+        <v>5193.995</v>
       </c>
       <c r="C9" t="n">
-        <v>3123.442</v>
+        <v>3094.576</v>
       </c>
       <c r="D9" t="n">
-        <v>2067.14</v>
+        <v>2099.419</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1708.499</v>
+        <v>1730.956</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1831.353</v>
+        <v>1851.416</v>
       </c>
       <c r="I9" t="n">
-        <v>235.787</v>
+        <v>248.003</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.936999999999999</v>
+        <v>-3.704</v>
       </c>
       <c r="K9" t="n">
-        <v>226.85</v>
+        <v>244.299</v>
       </c>
       <c r="L9" t="n">
-        <v>83.977</v>
+        <v>91.471</v>
       </c>
       <c r="M9" t="n">
-        <v>142.873</v>
+        <v>152.828</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.873</v>
+        <v>152.828</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>142.873</v>
+        <v>152.828</v>
       </c>
       <c r="R9" t="n">
-        <v>343.841</v>
+        <v>356.318</v>
       </c>
       <c r="S9" t="n">
-        <v>235.787</v>
+        <v>248.003</v>
       </c>
       <c r="T9" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U9" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="V9" t="n">
-        <v>2.83</v>
+        <v>3.37</v>
       </c>
       <c r="W9" t="n">
-        <v>2.8</v>
+        <v>3.32</v>
       </c>
       <c r="X9" t="n">
         <v>54.144</v>
@@ -3075,43 +3075,43 @@
         <v>1640.37</v>
       </c>
       <c r="AU9" t="n">
-        <v>142.873</v>
+        <v>152.828</v>
       </c>
       <c r="AV9" t="n">
-        <v>108.054</v>
+        <v>108.315</v>
       </c>
       <c r="AW9" t="n">
-        <v>12.735</v>
+        <v>22.935</v>
       </c>
       <c r="AX9" t="n">
-        <v>120.789</v>
+        <v>131.25</v>
       </c>
       <c r="AY9" t="n">
         <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.687</v>
+        <v>-8.707000000000001</v>
       </c>
       <c r="BA9" t="n">
-        <v>23.345</v>
+        <v>18.217</v>
       </c>
       <c r="BB9" t="n">
-        <v>24.353</v>
+        <v>5.946</v>
       </c>
       <c r="BC9" t="n">
-        <v>78.69</v>
+        <v>27.847</v>
       </c>
       <c r="BD9" t="n">
-        <v>342.352</v>
+        <v>311.925</v>
       </c>
       <c r="BE9" t="n">
-        <v>-125.989</v>
+        <v>-89.782</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>12.773</v>
+        <v>5.061</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
@@ -3123,43 +3123,43 @@
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="BL9" t="n">
-        <v>-113.193</v>
+        <v>-84.70099999999999</v>
       </c>
       <c r="BM9" t="n">
-        <v>-4.233</v>
+        <v>39.586</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>-4.233</v>
+        <v>39.586</v>
       </c>
       <c r="BP9" t="n">
-        <v>-185.584</v>
+        <v>-232.648</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-185.584</v>
+        <v>-232.648</v>
       </c>
       <c r="BR9" t="n">
-        <v>-38.53</v>
+        <v>-38.466</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.071</v>
+        <v>1.324</v>
       </c>
       <c r="BT9" t="n">
-        <v>-227.276</v>
+        <v>-230.204</v>
       </c>
       <c r="BU9" t="n">
-        <v>1.883</v>
+        <v>-2.98</v>
       </c>
       <c r="BV9" t="n">
-        <v>13.479</v>
+        <v>33.029</v>
       </c>
       <c r="BW9" t="n">
-        <v>-38.53</v>
+        <v>-38.466</v>
       </c>
       <c r="BX9" t="n">
         <v>1.4657</v>
@@ -3220,1162 +3220,6 @@
       </c>
       <c r="CQ9" t="n">
         <v>0.1432</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2015-01-31</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5177.078</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3133.124</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2043.954</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1699.764</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1819.466</v>
-      </c>
-      <c r="I10" t="n">
-        <v>224.488</v>
-      </c>
-      <c r="J10" t="n">
-        <v>-2.588</v>
-      </c>
-      <c r="K10" t="n">
-        <v>221.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>85.239</v>
-      </c>
-      <c r="M10" t="n">
-        <v>136.661</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>136.661</v>
-      </c>
-      <c r="P10" t="n">
-        <v>-22.385</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>114.276</v>
-      </c>
-      <c r="R10" t="n">
-        <v>330.337</v>
-      </c>
-      <c r="S10" t="n">
-        <v>224.488</v>
-      </c>
-      <c r="T10" t="n">
-        <v>55</v>
-      </c>
-      <c r="U10" t="n">
-        <v>56</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X10" t="n">
-        <v>52.261</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>851.669</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>95.345</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>999.275</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>550.5549999999999</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>39.768</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>636.616</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1635.891</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>587.829</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>62.1</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>130.482</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>258.512</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>846.341</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>2107.1</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>-14.656</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>789.55</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>1635.891</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>114.276</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>105.849</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>39.867</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>145.716</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>63.336</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>-6.864</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>23.647</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>58.57</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>318.562</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>-90.67700000000001</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>-0.07199999999999999</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>-90.749</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>-17.265</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>-17.265</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>-208.065</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>-208.065</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>-27.828</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>3.838</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>-249.32</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>-16.368</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>10.534</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>-27.828</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>1.6999</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0.07290000000000001</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>0.07870000000000001</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>39.4808</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>4.3362</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>4.3362</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>6.3808</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>4.2862</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>2.2073</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>3.1647</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>3.6788</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>17.3087</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>17.3087</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>8.353899999999999</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>16.0466</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>14.922</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>2.3125</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>2.4881</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2014-01-31</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5124.755</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3117.386</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2007.369</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1664.031</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1777.259</v>
-      </c>
-      <c r="I11" t="n">
-        <v>230.11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>-3.305</v>
-      </c>
-      <c r="K11" t="n">
-        <v>226.805</v>
-      </c>
-      <c r="L11" t="n">
-        <v>85.515</v>
-      </c>
-      <c r="M11" t="n">
-        <v>141.29</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>141.29</v>
-      </c>
-      <c r="P11" t="n">
-        <v>-15.995</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>125.295</v>
-      </c>
-      <c r="R11" t="n">
-        <v>332.306</v>
-      </c>
-      <c r="S11" t="n">
-        <v>230.11</v>
-      </c>
-      <c r="T11" t="n">
-        <v>57</v>
-      </c>
-      <c r="U11" t="n">
-        <v>58</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="X11" t="n">
-        <v>68.629</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>914.965</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>77.68600000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1121.061</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>569.682</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>618.538</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1739.599</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>577.447</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>77</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>107.361</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>260.725</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>838.172</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>2021.357</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>-13.511</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>901.427</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>1739.599</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>125.295</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>102.196</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>2.355</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>104.551</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>1.385</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>-27.468</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>23.109</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>-31.512</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>198.334</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>-104.786</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>-97.495</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>-95.289</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>-95.289</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>-0.577</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>-91.196</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>8.048</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>13.183</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>1.9414</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0.07870000000000001</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>0.0854</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>39.1701</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>4.4902</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>4.4902</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>6.4843</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>4.4257</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>2.4449</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>2.9459</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>3.4071</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>15.674</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>15.674</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>8.122</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>14.4405</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>15.6639</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>-1.2267</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>-0.8639</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2013-01-31</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5212.318</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3157.632</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2054.686</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1639.77</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1742.916</v>
-      </c>
-      <c r="I12" t="n">
-        <v>311.77</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-4.182</v>
-      </c>
-      <c r="K12" t="n">
-        <v>307.588</v>
-      </c>
-      <c r="L12" t="n">
-        <v>117.071</v>
-      </c>
-      <c r="M12" t="n">
-        <v>190.517</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>190.517</v>
-      </c>
-      <c r="P12" t="n">
-        <v>-13.396</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>177.121</v>
-      </c>
-      <c r="R12" t="n">
-        <v>407.372</v>
-      </c>
-      <c r="S12" t="n">
-        <v>311.77</v>
-      </c>
-      <c r="T12" t="n">
-        <v>60</v>
-      </c>
-      <c r="U12" t="n">
-        <v>60</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="X12" t="n">
-        <v>60.581</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>918.023</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>74.33</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>1090.63</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>593.562</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>13.522</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>55.912</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>662.996</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>1753.626</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>629.634</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>171.2</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>118.299</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>365.85</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>995.484</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>1896.062</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>-13.33</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>758.1420000000001</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>1753.626</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>177.121</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>95.602</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>27.443</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>123.045</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>-92.721</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>43.46</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>20.384</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>-19.033</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>281.133</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>-131.273</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>-130.357</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>103.979</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>103.979</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>-270.75</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>-270.75</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS12" t="n">
-        <v>8.497</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>-158.274</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>-7.966</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>17.879</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>1.7322</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>0.1842</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0.2299</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>39.4198</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>5.9814</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>5.9814</v>
-      </c>
-      <c r="CD12" t="n">
-        <v>7.8156</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>5.9012</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>3.3981</v>
-      </c>
-      <c r="CG12" t="n">
-        <v>2.9723</v>
-      </c>
-      <c r="CH12" t="n">
-        <v>3.4396</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>25.1295</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>25.5858</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>10.8642</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>20.5002</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>13.2383</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>-0.2308</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012-01-31</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5159.249</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3096.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2063.049</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1629.218</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1719.353</v>
-      </c>
-      <c r="I13" t="n">
-        <v>343.696</v>
-      </c>
-      <c r="J13" t="n">
-        <v>-3.703</v>
-      </c>
-      <c r="K13" t="n">
-        <v>339.993</v>
-      </c>
-      <c r="L13" t="n">
-        <v>133.835</v>
-      </c>
-      <c r="M13" t="n">
-        <v>206.158</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>206.158</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>207.064</v>
-      </c>
-      <c r="R13" t="n">
-        <v>437.003</v>
-      </c>
-      <c r="S13" t="n">
-        <v>343.696</v>
-      </c>
-      <c r="T13" t="n">
-        <v>68</v>
-      </c>
-      <c r="U13" t="n">
-        <v>69</v>
-      </c>
-      <c r="V13" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="W13" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="X13" t="n">
-        <v>68.547</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>825.1950000000001</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>70.13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1006.656</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>572.7670000000001</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>12.282</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>43.056</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>634.654</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1641.31</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>584.8200000000001</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>108.037</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>233.257</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>818.077</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1.175</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1718.941</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>-15.519</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>823.2329999999999</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1641.31</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>207.064</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>93.307</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>27.933</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>121.24</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>-54.512</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>31.555</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>2.831</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>-9.833</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>318.471</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>-130.426</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>1.835</v>
-      </c>
-      <c r="BH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK13" t="n">
-        <v>7.879</v>
-      </c>
-      <c r="BL13" t="n">
-        <v>-120.712</v>
-      </c>
-      <c r="BM13" t="n">
-        <v>47.283</v>
-      </c>
-      <c r="BN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO13" t="n">
-        <v>47.283</v>
-      </c>
-      <c r="BP13" t="n">
-        <v>-353.548</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>-353.548</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>-306.255</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>-108.992</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>24.993</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>1.7213</v>
-      </c>
-      <c r="BY13" t="n">
-        <v>0.0741</v>
-      </c>
-      <c r="BZ13" t="n">
-        <v>0.0838</v>
-      </c>
-      <c r="CA13" t="n">
-        <v>39.9874</v>
-      </c>
-      <c r="CB13" t="n">
-        <v>6.6618</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>6.6618</v>
-      </c>
-      <c r="CD13" t="n">
-        <v>8.4703</v>
-      </c>
-      <c r="CE13" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="CF13" t="n">
-        <v>4.0135</v>
-      </c>
-      <c r="CG13" t="n">
-        <v>3.1434</v>
-      </c>
-      <c r="CH13" t="n">
-        <v>3.7521</v>
-      </c>
-      <c r="CI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK13" t="n">
-        <v>25.0425</v>
-      </c>
-      <c r="CL13" t="n">
-        <v>25.4218</v>
-      </c>
-      <c r="CM13" t="n">
-        <v>12.5606</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>23.1864</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>12.9421</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>0.5758</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0.0492</v>
       </c>
     </row>
   </sheetData>
